--- a/220629_테이블명세서.xlsx
+++ b/220629_테이블명세서.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="295">
   <si>
     <t>name</t>
   </si>
@@ -808,49 +808,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wss_code_dtstmn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>COLUMN_DEFAULT</t>
+  </si>
+  <si>
+    <t>IS_NULLABLE</t>
+  </si>
+  <si>
+    <t>COMMENT</t>
+  </si>
+  <si>
+    <t>TABLE_NAME_KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wss_asos_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wss_code_dtstmn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss_copernicus_product_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>COLUMN_DEFAULT</t>
-  </si>
-  <si>
-    <t>IS_NULLABLE</t>
-  </si>
-  <si>
-    <t>COMMENT</t>
-  </si>
-  <si>
-    <t>wss_aws_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss_news_colct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_NAME_KOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss_asos_data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wss_reservoir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,10 +927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wss_asos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>character varying</t>
   </si>
   <si>
@@ -962,37 +942,64 @@
     <t>integer</t>
   </si>
   <si>
-    <t>wss_code_dtstmn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>timestamp without time zone</t>
   </si>
   <si>
-    <t>wss_copernicus_product_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>timestamp with time zone</t>
   </si>
   <si>
-    <t>wss_news_kwrd_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss_news_kwrd_year_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss_news_nouns_extrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss_reservoir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wss_water_level</t>
+    <t>SELECT
+    info. TABLE_NAME,
+    info. COLUMN_NAME,
+    info.data_type as type,
+    info.character_maximum_length end as length,
+    info.column_default,
+    info.is_nullable,
+    comm.column_comment as comment,
+    case when pri_key.column_name is null then '' else 'PK' end as PK
+FROM
+    information_schema. COLUMNS info
+        LEFT JOIN (
+        SELECT
+            PS.schemaname as SCHEMA_NAME,
+            PS.RELNAME AS TABLE_NAME,
+            PA.ATTNAME AS COLUMN_NAME,
+            PD.DESCRIPTION AS COLUMN_COMMENT
+        FROM
+            PG_STAT_ALL_TABLES PS,
+            PG_DESCRIPTION PD,
+            PG_ATTRIBUTE PA
+        WHERE
+                PS.RELID = PD.OBJOID
+          AND PD.OBJSUBID &lt;&gt; 0
+          AND PD.OBJOID = PA.ATTRELID
+          AND PD.OBJSUBID = PA.ATTNUM
+        ORDER BY
+            PS.RELNAME,
+            PD.OBJSUBID
+    ) comm ON comm.SCHEMA_NAME = info.table_schema
+        AND comm. TABLE_NAME = info. TABLE_NAME
+        AND comm. COLUMN_NAME = info. COLUMN_NAME
+        LEFT JOIN (
+        SELECT
+            CC.*
+        FROM
+            INFORMATION_SCHEMA.TABLE_CONSTRAINTS TC,
+            INFORMATION_SCHEMA.CONSTRAINT_COLUMN_USAGE CC
+        WHERE
+                TC.CONSTRAINT_TYPE = 'PRIMARY KEY'
+          AND TC.TABLE_CATALOG   = CC.TABLE_CATALOG
+          AND TC.TABLE_SCHEMA    = CC.TABLE_SCHEMA
+          AND TC.TABLE_NAME      = CC.TABLE_NAME
+          AND TC.CONSTRAINT_NAME = CC.CONSTRAINT_NAME
+    ) pri_key ON pri_key.table_schema = info.table_schema
+        AND pri_key. table_name = info.TABLE_NAME
+        AND pri_key. column_name = info. COLUMN_NAME
+WHERE
+        info.table_schema = 'public'
+ORDER BY
+    info. TABLE_NAME,
+    info.ordinal_position;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1007,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,6 +1020,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1060,21 +1076,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,11 +1411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1369,170 +1424,320 @@
     <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="E2" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C12" s="1"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>290</v>
-      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:M17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1540,16 +1745,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
@@ -1557,185 +1760,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="9" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="9">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
         <v>209</v>
       </c>
     </row>
@@ -1750,175 +1970,192 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="10" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D4" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="10">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="10">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1933,7 +2170,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1941,7 +2178,7 @@
     <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
@@ -1949,182 +2186,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="11" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="11">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E6">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="11">
+        <v>20</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2139,412 +2394,498 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="12">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="12">
+        <v>20</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="12">
         <v>50</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="12">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="12">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="D8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="12">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="D9" t="s">
-        <v>296</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="D11" t="s">
-        <v>296</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D12" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D14" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E15">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="12">
+        <v>20</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D16" t="s">
-        <v>296</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D17" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D18" t="s">
-        <v>296</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D19" t="s">
-        <v>296</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="D20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="D21" t="s">
-        <v>296</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="H21" s="12"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D22" t="s">
-        <v>292</v>
-      </c>
-      <c r="E22">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="12">
         <v>4</v>
       </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="D23" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D24" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="D25" t="s">
-        <v>296</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
         <v>3</v>
       </c>
+      <c r="H25" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2556,9 +2897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2573,112 +2912,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="13">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="13">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2691,246 +3046,292 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E14"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="13">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="13">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="13">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="13">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="13">
         <v>100</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="13">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2942,947 +3343,1191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="3">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>294</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D21" t="s">
-        <v>294</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D23" t="s">
-        <v>294</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D25" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" t="s">
-        <v>294</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D27" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D28" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D29" t="s">
-        <v>294</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D30" t="s">
-        <v>294</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D31" t="s">
-        <v>294</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" t="s">
-        <v>294</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D33" t="s">
-        <v>294</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
-        <v>294</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D35" t="s">
-        <v>294</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D36" t="s">
-        <v>294</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D37" t="s">
-        <v>294</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D38" t="s">
-        <v>294</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
-        <v>294</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D40" t="s">
-        <v>294</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D41" t="s">
-        <v>294</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D42" t="s">
-        <v>294</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D43" t="s">
-        <v>294</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D44" t="s">
-        <v>294</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D45" t="s">
-        <v>294</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D46" t="s">
-        <v>294</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D47" t="s">
-        <v>294</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D48" t="s">
-        <v>294</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D49" t="s">
-        <v>294</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D50" t="s">
-        <v>294</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D51" t="s">
-        <v>294</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D52" t="s">
-        <v>294</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D53" t="s">
-        <v>294</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D54" t="s">
-        <v>294</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D55" t="s">
-        <v>294</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D56" t="s">
-        <v>294</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D57" t="s">
-        <v>294</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>20</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D58" t="s">
-        <v>294</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D59" t="s">
-        <v>294</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D60" t="s">
-        <v>294</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D61" t="s">
-        <v>294</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D62" t="s">
-        <v>294</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D63" t="s">
-        <v>292</v>
-      </c>
-      <c r="E63">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" s="3">
         <v>2000</v>
       </c>
-      <c r="G63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D64" t="s">
-        <v>294</v>
-      </c>
-      <c r="G64" t="s">
-        <v>1</v>
-      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3895,227 +4540,262 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="4">
         <v>40</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D11" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="4">
         <v>200</v>
       </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E12" s="4">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4128,7 +4808,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4154,581 +4834,732 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="13">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="13">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D5" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="13">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D6" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D9" t="s">
-        <v>294</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D10" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D11" t="s">
-        <v>294</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D12" t="s">
-        <v>294</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D13" t="s">
-        <v>294</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="D14" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D15" t="s">
-        <v>294</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="D16" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D17" t="s">
-        <v>294</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D18" t="s">
-        <v>294</v>
-      </c>
-      <c r="G18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D19" t="s">
-        <v>294</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D20" t="s">
-        <v>294</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s">
-        <v>294</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D22" t="s">
-        <v>294</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D23" t="s">
-        <v>294</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D24" t="s">
-        <v>294</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D25" t="s">
-        <v>294</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D26" t="s">
-        <v>294</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="D27" t="s">
-        <v>294</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D28" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" s="13"/>
+      <c r="D28" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D29" t="s">
-        <v>294</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D30" t="s">
-        <v>294</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D31" t="s">
-        <v>294</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D32" t="s">
-        <v>294</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D33" t="s">
-        <v>294</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D34" t="s">
-        <v>294</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D35" t="s">
-        <v>294</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D36" t="s">
-        <v>294</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="13"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D37" t="s">
-        <v>294</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D38" t="s">
-        <v>294</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D39" t="s">
-        <v>294</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D40" t="s">
-        <v>294</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4740,139 +5571,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D5" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4886,132 +5727,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="6">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="6">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="6">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>298</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5023,239 +5877,277 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="7">
+        <v>40</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E3" s="7">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="7">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="7">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E2">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="7">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E6">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" t="s">
-        <v>298</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5268,14 +6160,14 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.75" bestFit="1" customWidth="1"/>
@@ -5284,281 +6176,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D9" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D10" t="s">
-        <v>300</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="D11" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D12" t="s">
-        <v>292</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D13" t="s">
-        <v>292</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="8">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>196</v>
       </c>
     </row>
